--- a/ANGLE/5.xlsx
+++ b/ANGLE/5.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12117" uniqueCount="12078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12116" uniqueCount="12077">
   <si>
     <t>电话号码</t>
   </si>
@@ -36248,9 +36247,6 @@
   </si>
   <si>
     <t>13823636611</t>
-  </si>
-  <si>
-    <t>13823649113</t>
   </si>
 </sst>
 </file>
@@ -36616,7 +36612,7 @@
   <dimension ref="A1:A12118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12101" workbookViewId="0">
-      <selection activeCell="B12116" sqref="B12116"/>
+      <selection activeCell="A12117" sqref="A12117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -97205,9 +97201,7 @@
       </c>
     </row>
     <row r="12117" spans="1:1">
-      <c r="A12117" s="3" t="s">
-        <v>12077</v>
-      </c>
+      <c r="A12117" s="3"/>
     </row>
     <row r="12118" spans="1:1">
       <c r="A12118" s="3"/>

--- a/ANGLE/5.xlsx
+++ b/ANGLE/5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12116" uniqueCount="12077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12142" uniqueCount="12103">
   <si>
     <t>电话号码</t>
   </si>
@@ -36246,7 +36246,85 @@
     <t>13823612626</t>
   </si>
   <si>
-    <t>13823636611</t>
+    <t>13682363386</t>
+  </si>
+  <si>
+    <t>13424330695</t>
+  </si>
+  <si>
+    <t>13554709287</t>
+  </si>
+  <si>
+    <t>13691697512</t>
+  </si>
+  <si>
+    <t>13530987156</t>
+  </si>
+  <si>
+    <t>13410350960</t>
+  </si>
+  <si>
+    <t>13543282273</t>
+  </si>
+  <si>
+    <t>13620963371</t>
+  </si>
+  <si>
+    <t>13603092072</t>
+  </si>
+  <si>
+    <t>13423748939</t>
+  </si>
+  <si>
+    <t>15915436105</t>
+  </si>
+  <si>
+    <t>13717071663</t>
+  </si>
+  <si>
+    <t>13048804005</t>
+  </si>
+  <si>
+    <t>13528711695</t>
+  </si>
+  <si>
+    <t>13312986582</t>
+  </si>
+  <si>
+    <t>13316440822</t>
+  </si>
+  <si>
+    <t>18925224929</t>
+  </si>
+  <si>
+    <t>13714255241</t>
+  </si>
+  <si>
+    <t>13590133274</t>
+  </si>
+  <si>
+    <t>13823287470</t>
+  </si>
+  <si>
+    <t>13530703680</t>
+  </si>
+  <si>
+    <t>13510688795</t>
+  </si>
+  <si>
+    <t>13902955866</t>
+  </si>
+  <si>
+    <t>13715235629</t>
+  </si>
+  <si>
+    <t>13632680662</t>
+  </si>
+  <si>
+    <t>13828779097</t>
+  </si>
+  <si>
+    <t>13600163385</t>
   </si>
 </sst>
 </file>
@@ -36609,10 +36687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A12118"/>
+  <dimension ref="A1:A12142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12101" workbookViewId="0">
-      <selection activeCell="A12117" sqref="A12117"/>
+    <sheetView tabSelected="1" topLeftCell="A12089" workbookViewId="0">
+      <selection activeCell="A12097" sqref="A12097"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -97196,15 +97274,139 @@
       </c>
     </row>
     <row r="12116" spans="1:1">
-      <c r="A12116" s="3" t="s">
+      <c r="A12116" s="1" t="s">
         <v>12076</v>
       </c>
     </row>
     <row r="12117" spans="1:1">
-      <c r="A12117" s="3"/>
+      <c r="A12117" s="1" t="s">
+        <v>12077</v>
+      </c>
     </row>
     <row r="12118" spans="1:1">
-      <c r="A12118" s="3"/>
+      <c r="A12118" s="1" t="s">
+        <v>12078</v>
+      </c>
+    </row>
+    <row r="12119" spans="1:1">
+      <c r="A12119" s="1" t="s">
+        <v>12079</v>
+      </c>
+    </row>
+    <row r="12120" spans="1:1">
+      <c r="A12120" s="1" t="s">
+        <v>12080</v>
+      </c>
+    </row>
+    <row r="12121" spans="1:1">
+      <c r="A12121" s="1" t="s">
+        <v>12081</v>
+      </c>
+    </row>
+    <row r="12122" spans="1:1">
+      <c r="A12122" s="1" t="s">
+        <v>12082</v>
+      </c>
+    </row>
+    <row r="12123" spans="1:1">
+      <c r="A12123" s="1" t="s">
+        <v>12083</v>
+      </c>
+    </row>
+    <row r="12124" spans="1:1">
+      <c r="A12124" s="1" t="s">
+        <v>12084</v>
+      </c>
+    </row>
+    <row r="12125" spans="1:1">
+      <c r="A12125" s="1" t="s">
+        <v>12085</v>
+      </c>
+    </row>
+    <row r="12126" spans="1:1">
+      <c r="A12126" s="1" t="s">
+        <v>12086</v>
+      </c>
+    </row>
+    <row r="12127" spans="1:1">
+      <c r="A12127" s="1" t="s">
+        <v>12087</v>
+      </c>
+    </row>
+    <row r="12128" spans="1:1">
+      <c r="A12128" s="1" t="s">
+        <v>12088</v>
+      </c>
+    </row>
+    <row r="12129" spans="1:1">
+      <c r="A12129" s="1" t="s">
+        <v>12089</v>
+      </c>
+    </row>
+    <row r="12130" spans="1:1">
+      <c r="A12130" s="1" t="s">
+        <v>12090</v>
+      </c>
+    </row>
+    <row r="12131" spans="1:1">
+      <c r="A12131" s="1" t="s">
+        <v>12091</v>
+      </c>
+    </row>
+    <row r="12132" spans="1:1">
+      <c r="A12132" s="1" t="s">
+        <v>12092</v>
+      </c>
+    </row>
+    <row r="12133" spans="1:1">
+      <c r="A12133" s="1" t="s">
+        <v>12093</v>
+      </c>
+    </row>
+    <row r="12134" spans="1:1">
+      <c r="A12134" s="1" t="s">
+        <v>12094</v>
+      </c>
+    </row>
+    <row r="12135" spans="1:1">
+      <c r="A12135" s="1" t="s">
+        <v>12095</v>
+      </c>
+    </row>
+    <row r="12136" spans="1:1">
+      <c r="A12136" s="1" t="s">
+        <v>12096</v>
+      </c>
+    </row>
+    <row r="12137" spans="1:1">
+      <c r="A12137" s="1" t="s">
+        <v>12097</v>
+      </c>
+    </row>
+    <row r="12138" spans="1:1">
+      <c r="A12138" s="1" t="s">
+        <v>12098</v>
+      </c>
+    </row>
+    <row r="12139" spans="1:1">
+      <c r="A12139" s="1" t="s">
+        <v>12099</v>
+      </c>
+    </row>
+    <row r="12140" spans="1:1">
+      <c r="A12140" s="1" t="s">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="12141" spans="1:1">
+      <c r="A12141" s="1" t="s">
+        <v>12101</v>
+      </c>
+    </row>
+    <row r="12142" spans="1:1">
+      <c r="A12142" s="1" t="s">
+        <v>12102</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
